--- a/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
@@ -690,6 +690,9 @@
       <c r="C31" t="str">
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -751,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010889415620815610555302030153020105105510150</v>
+        <v>010889415620815610555302030153020105105510151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
@@ -691,7 +691,7 @@
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010889415620815610555302030153020105105510151</v>
+        <v>0108894156208156105553020301530201051055101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-2-20.xlsx
@@ -756,6 +756,9 @@
       <c r="G2" t="str">
         <v>0108894156208156105553020301530201051055101510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
